--- a/Proyecto 1 - Analisis de la Adopcion del Transporte Publico en Los Angeles/Data/Procesada/Poblacion_SinHogar_SPA_Limpia.xlsx
+++ b/Proyecto 1 - Analisis de la Adopcion del Transporte Publico en Los Angeles/Data/Procesada/Poblacion_SinHogar_SPA_Limpia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renat\Documents\portfolios\xzoremx.github.io\Proyecto 1 - Analisis de la Adopcion del Transporte Publico en Los Angeles\Data\Procesada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD5115C-6E7C-4B32-9D69-B7C628AF78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08013012-8A50-422B-B299-BBE09113973A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C4E4152A-2173-4582-99CB-B426023B504E}"/>
   </bookViews>
@@ -16,6 +16,11 @@
     <sheet name="Poblacion_SinHogar_SPA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
